--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF703EB-8C43-476B-9977-CCEED73AA944}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastListve="0" documentId="13_ncr:1_{CEF703EB-8C43-476B-9977-CCEED73AA944}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastListve="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
         <a:font script="Deva" typeface="Mangal"/>
         <a:font script="Telu" typeface="Gautami"/>
         <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrc" typeface="Estrangelo EdesList"/>
         <a:font script="Orya" typeface="Kalinga"/>
         <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
@@ -412,7 +412,7 @@
         <a:font script="Deva" typeface="Mangal"/>
         <a:font script="Telu" typeface="Gautami"/>
         <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrc" typeface="Estrangelo EdesList"/>
         <a:font script="Orya" typeface="Kalinga"/>
         <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
@@ -433,21 +433,21 @@
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
+                <a:ListtMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
+                <a:ListtMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
+                <a:ListtMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
@@ -458,14 +458,14 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
+                <a:ListtMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
+                <a:ListtMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -473,7 +473,7 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
+                <a:ListtMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
@@ -528,7 +528,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+            <a:ListtMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
@@ -536,7 +536,7 @@
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
+                <a:ListtMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -544,7 +544,7 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
+                <a:ListtMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -552,7 +552,7 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:ListtMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
